--- a/data/pca/factorExposure/factorExposure_2009-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01705447218122507</v>
+        <v>-0.01671573168512288</v>
       </c>
       <c r="C2">
-        <v>0.002182481427113621</v>
+        <v>0.001565249659040232</v>
       </c>
       <c r="D2">
-        <v>0.006872046370171616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008305349671069736</v>
+      </c>
+      <c r="E2">
+        <v>0.01881802687313608</v>
+      </c>
+      <c r="F2">
+        <v>-0.007086806035607685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08349557933337819</v>
+        <v>-0.0866687180917534</v>
       </c>
       <c r="C4">
-        <v>0.02009385824892862</v>
+        <v>0.01591106691984921</v>
       </c>
       <c r="D4">
-        <v>0.08485400464563354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08835053205500537</v>
+      </c>
+      <c r="E4">
+        <v>-0.05050025107265052</v>
+      </c>
+      <c r="F4">
+        <v>0.01382773078723492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0009751348502404376</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000282089643213925</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.001093255928593752</v>
+      </c>
+      <c r="E5">
+        <v>-0.0009321059921826253</v>
+      </c>
+      <c r="F5">
+        <v>-0.002519781793454945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1621867881261883</v>
+        <v>-0.167770109127245</v>
       </c>
       <c r="C6">
-        <v>0.03915846851022421</v>
+        <v>0.03647278975255773</v>
       </c>
       <c r="D6">
-        <v>-0.0209178180159448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01055433408020279</v>
+      </c>
+      <c r="E6">
+        <v>-0.06072027168522395</v>
+      </c>
+      <c r="F6">
+        <v>0.01201459957118392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05486348668996513</v>
+        <v>-0.05952522299266158</v>
       </c>
       <c r="C7">
-        <v>0.001680917660383795</v>
+        <v>-0.001191350139783142</v>
       </c>
       <c r="D7">
-        <v>0.05112579571000921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05515072029124229</v>
+      </c>
+      <c r="E7">
+        <v>-0.03070197442074677</v>
+      </c>
+      <c r="F7">
+        <v>0.0538153336746259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0584764959646176</v>
+        <v>-0.05492132590016702</v>
       </c>
       <c r="C8">
-        <v>-0.009110764429730682</v>
+        <v>-0.01092341522026497</v>
       </c>
       <c r="D8">
-        <v>0.03578351303471694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03752079735672032</v>
+      </c>
+      <c r="E8">
+        <v>0.02218581934082131</v>
+      </c>
+      <c r="F8">
+        <v>-0.02307288860536604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0638249080881825</v>
+        <v>-0.06732559592021921</v>
       </c>
       <c r="C9">
-        <v>0.01538411000042395</v>
+        <v>0.01138711000829358</v>
       </c>
       <c r="D9">
-        <v>0.08752682888137427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0915386424892268</v>
+      </c>
+      <c r="E9">
+        <v>-0.06644965696929143</v>
+      </c>
+      <c r="F9">
+        <v>0.0204682980306457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09775203322080055</v>
+        <v>-0.09369398986490243</v>
       </c>
       <c r="C10">
-        <v>0.02526126412795552</v>
+        <v>0.02613353391956984</v>
       </c>
       <c r="D10">
-        <v>-0.1611326009808767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1529869901897934</v>
+      </c>
+      <c r="E10">
+        <v>0.09030032995843082</v>
+      </c>
+      <c r="F10">
+        <v>-0.01192611170840167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08555046081793258</v>
+        <v>-0.08327156784853254</v>
       </c>
       <c r="C11">
-        <v>0.01763715591094864</v>
+        <v>0.01252897401250506</v>
       </c>
       <c r="D11">
-        <v>0.1370043524498505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1371218418128004</v>
+      </c>
+      <c r="E11">
+        <v>-0.03518056409484667</v>
+      </c>
+      <c r="F11">
+        <v>-0.01028834705705133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09008501114829015</v>
+        <v>-0.08552413668446608</v>
       </c>
       <c r="C12">
-        <v>0.0153703856050947</v>
+        <v>0.009699653096336962</v>
       </c>
       <c r="D12">
-        <v>0.1457443382158675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1511706367876972</v>
+      </c>
+      <c r="E12">
+        <v>-0.03336418855024525</v>
+      </c>
+      <c r="F12">
+        <v>0.001622450885851473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04197636814175185</v>
+        <v>-0.04254043334181631</v>
       </c>
       <c r="C13">
-        <v>0.007734341645469516</v>
+        <v>0.003814527641455175</v>
       </c>
       <c r="D13">
-        <v>0.05361369047986426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06055671552904232</v>
+      </c>
+      <c r="E13">
+        <v>-0.003608550532593259</v>
+      </c>
+      <c r="F13">
+        <v>0.0151776175542638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01986976202664085</v>
+        <v>-0.02234260717934977</v>
       </c>
       <c r="C14">
-        <v>0.0151593245890256</v>
+        <v>0.01407097911162642</v>
       </c>
       <c r="D14">
-        <v>0.04046642881643865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04228310939677617</v>
+      </c>
+      <c r="E14">
+        <v>-0.0279697281236338</v>
+      </c>
+      <c r="F14">
+        <v>0.0007383261887325594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03210349732186495</v>
+        <v>-0.03341012500095299</v>
       </c>
       <c r="C15">
-        <v>0.008193377452915896</v>
+        <v>0.006589045404602064</v>
       </c>
       <c r="D15">
-        <v>0.05445266631893972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05401184038517205</v>
+      </c>
+      <c r="E15">
+        <v>-0.0248538902342683</v>
+      </c>
+      <c r="F15">
+        <v>0.0129858076367752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06642264159328869</v>
+        <v>-0.06589244250113623</v>
       </c>
       <c r="C16">
-        <v>0.006060385267521071</v>
+        <v>0.001105361400835106</v>
       </c>
       <c r="D16">
-        <v>0.1404993971979392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.144738174621266</v>
+      </c>
+      <c r="E16">
+        <v>-0.04463802316982705</v>
+      </c>
+      <c r="F16">
+        <v>-0.01626500206577616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002747038082198174</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001129876773099523</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002844908876288575</v>
+      </c>
+      <c r="E17">
+        <v>0.000189037230024911</v>
+      </c>
+      <c r="F17">
+        <v>-0.00717320892238533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.031421885110379</v>
+        <v>-0.04766091811646332</v>
       </c>
       <c r="C18">
-        <v>0.0003221190325601399</v>
+        <v>0.0006281261973901803</v>
       </c>
       <c r="D18">
-        <v>0.03144687869125583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02828388670757226</v>
+      </c>
+      <c r="E18">
+        <v>0.01916786182017064</v>
+      </c>
+      <c r="F18">
+        <v>0.004469197453737625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06153942736759128</v>
+        <v>-0.06119080877042037</v>
       </c>
       <c r="C20">
-        <v>0.005309122840332516</v>
+        <v>0.002455625269758254</v>
       </c>
       <c r="D20">
-        <v>0.09597136951979476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09570366198444547</v>
+      </c>
+      <c r="E20">
+        <v>-0.06153953673666485</v>
+      </c>
+      <c r="F20">
+        <v>-0.00877475364735931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04196960296530262</v>
+        <v>-0.04368444540708444</v>
       </c>
       <c r="C21">
-        <v>0.01096296299297241</v>
+        <v>0.008319972735416768</v>
       </c>
       <c r="D21">
-        <v>0.04815625145693068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.04846956910410823</v>
+      </c>
+      <c r="E21">
+        <v>0.01859156329439086</v>
+      </c>
+      <c r="F21">
+        <v>0.006281270779365277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04667545811786383</v>
+        <v>-0.04469085222834206</v>
       </c>
       <c r="C22">
-        <v>0.005323866543133215</v>
+        <v>0.002775918909225026</v>
       </c>
       <c r="D22">
-        <v>0.01121767566278393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01670185592903034</v>
+      </c>
+      <c r="E22">
+        <v>0.04059964794521931</v>
+      </c>
+      <c r="F22">
+        <v>-0.1255466903025927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04668449747588545</v>
+        <v>-0.0446985336599631</v>
       </c>
       <c r="C23">
-        <v>0.005326445465283094</v>
+        <v>0.002778256051738627</v>
       </c>
       <c r="D23">
-        <v>0.01121014673276107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01669583719253847</v>
+      </c>
+      <c r="E23">
+        <v>0.04062211163787215</v>
+      </c>
+      <c r="F23">
+        <v>-0.1255863028387567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07302371355192216</v>
+        <v>-0.07174236698212261</v>
       </c>
       <c r="C24">
-        <v>0.006681226744637846</v>
+        <v>0.002184457798250417</v>
       </c>
       <c r="D24">
-        <v>0.1354592815730347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1352157235794267</v>
+      </c>
+      <c r="E24">
+        <v>-0.03868074789295797</v>
+      </c>
+      <c r="F24">
+        <v>0.002114078081031693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07950571908698277</v>
+        <v>-0.07709792526955285</v>
       </c>
       <c r="C25">
-        <v>0.009733006182648073</v>
+        <v>0.005262959576222253</v>
       </c>
       <c r="D25">
-        <v>0.1275160082172723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1263186209130588</v>
+      </c>
+      <c r="E25">
+        <v>-0.02355157057547479</v>
+      </c>
+      <c r="F25">
+        <v>0.01701942267841321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05706258637857955</v>
+        <v>-0.06173248174099485</v>
       </c>
       <c r="C26">
-        <v>0.01924017077118392</v>
+        <v>0.01642332466152182</v>
       </c>
       <c r="D26">
-        <v>0.06583668343889104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06685405146736539</v>
+      </c>
+      <c r="E26">
+        <v>-0.002337582965380001</v>
+      </c>
+      <c r="F26">
+        <v>-0.01101371850502392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1569152797179963</v>
+        <v>-0.1610227755680585</v>
       </c>
       <c r="C28">
-        <v>0.0310066528586444</v>
+        <v>0.03344974857398742</v>
       </c>
       <c r="D28">
-        <v>-0.2454945824160371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2437653364126093</v>
+      </c>
+      <c r="E28">
+        <v>0.02407835051984844</v>
+      </c>
+      <c r="F28">
+        <v>0.04249711905994399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02624517314778729</v>
+        <v>-0.02794062995061999</v>
       </c>
       <c r="C29">
-        <v>0.01008637377339644</v>
+        <v>0.009445859181314473</v>
       </c>
       <c r="D29">
-        <v>0.03960632538636968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03949278025202458</v>
+      </c>
+      <c r="E29">
+        <v>0.006068397614010167</v>
+      </c>
+      <c r="F29">
+        <v>-0.02289114827091861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04664364833484801</v>
+        <v>-0.04654602741394775</v>
       </c>
       <c r="C30">
-        <v>0.004863317152591922</v>
+        <v>0.001466401006420805</v>
       </c>
       <c r="D30">
-        <v>0.07786719257096848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08169763459767512</v>
+      </c>
+      <c r="E30">
+        <v>-0.08585867777580782</v>
+      </c>
+      <c r="F30">
+        <v>0.06483999037131516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05195343769933921</v>
+        <v>-0.05237024574024556</v>
       </c>
       <c r="C31">
-        <v>0.01985754316077929</v>
+        <v>0.01748553512734673</v>
       </c>
       <c r="D31">
-        <v>0.03168012422608275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03475579013050579</v>
+      </c>
+      <c r="E31">
+        <v>-0.009452857316713888</v>
+      </c>
+      <c r="F31">
+        <v>-0.03069844938071588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04383019534913325</v>
+        <v>-0.04914229052716726</v>
       </c>
       <c r="C32">
-        <v>0.001529954617414167</v>
+        <v>-0.001081849326413215</v>
       </c>
       <c r="D32">
-        <v>0.03807279595500897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03933379453094583</v>
+      </c>
+      <c r="E32">
+        <v>-0.01188184477311715</v>
+      </c>
+      <c r="F32">
+        <v>-0.02262823278232869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08387512857296286</v>
+        <v>-0.08602817811874609</v>
       </c>
       <c r="C33">
-        <v>0.01376551458328429</v>
+        <v>0.008551877070781203</v>
       </c>
       <c r="D33">
-        <v>0.1066872963762668</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1140965148688676</v>
+      </c>
+      <c r="E33">
+        <v>-0.04437342518215064</v>
+      </c>
+      <c r="F33">
+        <v>-0.01448076986724517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06018769639961068</v>
+        <v>-0.06082928867044087</v>
       </c>
       <c r="C34">
-        <v>0.01483851219674349</v>
+        <v>0.0101160030769326</v>
       </c>
       <c r="D34">
-        <v>0.116787921548893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1220651497740923</v>
+      </c>
+      <c r="E34">
+        <v>-0.03788570725297682</v>
+      </c>
+      <c r="F34">
+        <v>0.02231638011055493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02711516570155128</v>
+        <v>-0.0280492130290344</v>
       </c>
       <c r="C35">
-        <v>0.005341750801115497</v>
+        <v>0.004564691189328085</v>
       </c>
       <c r="D35">
-        <v>0.01361580870279407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01536642299232415</v>
+      </c>
+      <c r="E35">
+        <v>-0.01002051273772258</v>
+      </c>
+      <c r="F35">
+        <v>-0.01891342780820958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02318470837445831</v>
+        <v>-0.02775390209418046</v>
       </c>
       <c r="C36">
-        <v>0.009154891558033439</v>
+        <v>0.00806225836119543</v>
       </c>
       <c r="D36">
-        <v>0.04637720766422896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04877141941087323</v>
+      </c>
+      <c r="E36">
+        <v>-0.03712355971644489</v>
+      </c>
+      <c r="F36">
+        <v>-0.01309399807393472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003432900012881266</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008358817613598104</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003795270462908215</v>
+      </c>
+      <c r="E37">
+        <v>0.001567285650564586</v>
+      </c>
+      <c r="F37">
+        <v>-0.0001011969323605549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09488462382702482</v>
+        <v>-0.08740124649632015</v>
       </c>
       <c r="C39">
-        <v>0.02061416771250363</v>
+        <v>0.01486736626713674</v>
       </c>
       <c r="D39">
-        <v>0.1675869394519299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1623543384259221</v>
+      </c>
+      <c r="E39">
+        <v>-0.02630562742938571</v>
+      </c>
+      <c r="F39">
+        <v>-0.01733664317582434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04437177948610142</v>
+        <v>-0.04928218338738416</v>
       </c>
       <c r="C40">
-        <v>0.01257633725587045</v>
+        <v>0.01083343763803548</v>
       </c>
       <c r="D40">
-        <v>0.04613658305509762</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04918579600526859</v>
+      </c>
+      <c r="E40">
+        <v>0.02044132986849142</v>
+      </c>
+      <c r="F40">
+        <v>0.0006082296327516744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02714270451085593</v>
+        <v>-0.02905413767108682</v>
       </c>
       <c r="C41">
-        <v>0.008718919710457807</v>
+        <v>0.008078716047441365</v>
       </c>
       <c r="D41">
-        <v>0.02102933549902205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02150810062314266</v>
+      </c>
+      <c r="E41">
+        <v>0.008128228844092701</v>
+      </c>
+      <c r="F41">
+        <v>-0.005115771083686904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04205413783954943</v>
+        <v>-0.04076862375241844</v>
       </c>
       <c r="C43">
-        <v>0.009783207118290133</v>
+        <v>0.008696175906232095</v>
       </c>
       <c r="D43">
-        <v>0.03169715227289856</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03129558174048722</v>
+      </c>
+      <c r="E43">
+        <v>0.007698321267059355</v>
+      </c>
+      <c r="F43">
+        <v>-0.0239537400416057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05736403002664719</v>
+        <v>-0.06578639859578807</v>
       </c>
       <c r="C44">
-        <v>0.02137970685724205</v>
+        <v>0.01848285957918801</v>
       </c>
       <c r="D44">
-        <v>0.08326380431706774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09007061710915454</v>
+      </c>
+      <c r="E44">
+        <v>-0.2243718374584012</v>
+      </c>
+      <c r="F44">
+        <v>0.06849816346949704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002322899485507944</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.546074099669079e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>4.132131282736107e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0005954757226536291</v>
+      </c>
+      <c r="F45">
+        <v>0.0002998015062803831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02488808448893961</v>
+        <v>-0.02625924570493289</v>
       </c>
       <c r="C46">
-        <v>0.00536380342988656</v>
+        <v>0.004393746517413213</v>
       </c>
       <c r="D46">
-        <v>0.02594437586426787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02652730575264355</v>
+      </c>
+      <c r="E46">
+        <v>0.003575142747366173</v>
+      </c>
+      <c r="F46">
+        <v>-0.03242605717110784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05363645133890826</v>
+        <v>-0.0526295163335663</v>
       </c>
       <c r="C47">
-        <v>0.007534928530270288</v>
+        <v>0.005671159305801957</v>
       </c>
       <c r="D47">
-        <v>0.02085195677250633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02218805785133921</v>
+      </c>
+      <c r="E47">
+        <v>0.01293382817986097</v>
+      </c>
+      <c r="F47">
+        <v>-0.05300353888667122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04838082184838668</v>
+        <v>-0.05222793036655014</v>
       </c>
       <c r="C48">
-        <v>0.006592934723475794</v>
+        <v>0.004121138739525429</v>
       </c>
       <c r="D48">
-        <v>0.0656770605976808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06341914849090327</v>
+      </c>
+      <c r="E48">
+        <v>-0.00424114364034234</v>
+      </c>
+      <c r="F48">
+        <v>0.02033398056570293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1950637846100177</v>
+        <v>-0.1978376863129905</v>
       </c>
       <c r="C49">
-        <v>0.03048328361701916</v>
+        <v>0.0260882742553127</v>
       </c>
       <c r="D49">
-        <v>-0.00574247061461022</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001463298398694728</v>
+      </c>
+      <c r="E49">
+        <v>-0.04806369820704673</v>
+      </c>
+      <c r="F49">
+        <v>0.03984406253146445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04960511689131545</v>
+        <v>-0.05234673078340378</v>
       </c>
       <c r="C50">
-        <v>0.01511395703353414</v>
+        <v>0.01337223891068674</v>
       </c>
       <c r="D50">
-        <v>0.03025298524648247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03225990698311039</v>
+      </c>
+      <c r="E50">
+        <v>-0.02045876103081108</v>
+      </c>
+      <c r="F50">
+        <v>-0.01777966321764649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1469291869765094</v>
+        <v>-0.1412639262307331</v>
       </c>
       <c r="C52">
-        <v>0.02583953482228108</v>
+        <v>0.02175251583008999</v>
       </c>
       <c r="D52">
-        <v>0.04008773031554208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04286378328724809</v>
+      </c>
+      <c r="E52">
+        <v>-0.05732608477156595</v>
+      </c>
+      <c r="F52">
+        <v>-0.01688482878207193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1768161986726217</v>
+        <v>-0.1688112687357391</v>
       </c>
       <c r="C53">
-        <v>0.03112332196368189</v>
+        <v>0.02744039137634289</v>
       </c>
       <c r="D53">
-        <v>0.01044183823723718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01416723857332866</v>
+      </c>
+      <c r="E53">
+        <v>-0.1143377837664302</v>
+      </c>
+      <c r="F53">
+        <v>-0.003087397396830031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01399256819658784</v>
+        <v>-0.01686465148102583</v>
       </c>
       <c r="C54">
-        <v>0.0117728709627647</v>
+        <v>0.01109670118910105</v>
       </c>
       <c r="D54">
-        <v>0.03501589255278049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03345080249507623</v>
+      </c>
+      <c r="E54">
+        <v>-0.005698502265357916</v>
+      </c>
+      <c r="F54">
+        <v>-0.01715149140322954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1202038718983375</v>
+        <v>-0.1176093783784657</v>
       </c>
       <c r="C55">
-        <v>0.0263376155576682</v>
+        <v>0.02345456351211081</v>
       </c>
       <c r="D55">
-        <v>0.01040026135660791</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01860035347054641</v>
+      </c>
+      <c r="E55">
+        <v>-0.06689650142510645</v>
+      </c>
+      <c r="F55">
+        <v>-0.03874971474278105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.180745341944938</v>
+        <v>-0.1748570994272567</v>
       </c>
       <c r="C56">
-        <v>0.02870348504310099</v>
+        <v>0.02539314878778587</v>
       </c>
       <c r="D56">
-        <v>-0.0003928964550716776</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002999387529013199</v>
+      </c>
+      <c r="E56">
+        <v>-0.0733620088405512</v>
+      </c>
+      <c r="F56">
+        <v>-0.02758526865713128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04525477471025092</v>
+        <v>-0.04544850664112251</v>
       </c>
       <c r="C58">
-        <v>0.004665863210830406</v>
+        <v>0.000658634042079043</v>
       </c>
       <c r="D58">
-        <v>0.09289034707502447</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.09746845357184508</v>
+      </c>
+      <c r="E58">
+        <v>0.01761026096350491</v>
+      </c>
+      <c r="F58">
+        <v>-0.03807456143837454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1749969223284716</v>
+        <v>-0.1793130519370735</v>
       </c>
       <c r="C59">
-        <v>0.0301912983462515</v>
+        <v>0.03211944192495469</v>
       </c>
       <c r="D59">
-        <v>-0.2075537423375997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2058676946543704</v>
+      </c>
+      <c r="E59">
+        <v>0.07671424090165414</v>
+      </c>
+      <c r="F59">
+        <v>-0.01021287659032414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2216219147753702</v>
+        <v>-0.2171344604448306</v>
       </c>
       <c r="C60">
-        <v>0.009552375165598611</v>
+        <v>0.004644645293186503</v>
       </c>
       <c r="D60">
-        <v>0.02062280355363125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02293750738223741</v>
+      </c>
+      <c r="E60">
+        <v>0.004353991382182435</v>
+      </c>
+      <c r="F60">
+        <v>0.005116861406846516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07246874078618122</v>
+        <v>-0.06828612032190431</v>
       </c>
       <c r="C61">
-        <v>0.01593030952288432</v>
+        <v>0.01101126640812044</v>
       </c>
       <c r="D61">
-        <v>0.1248164504864352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1239811109075361</v>
+      </c>
+      <c r="E61">
+        <v>-0.01226421087621482</v>
+      </c>
+      <c r="F61">
+        <v>-0.0211031774400839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1698866884176081</v>
+        <v>-0.1662110984828663</v>
       </c>
       <c r="C62">
-        <v>0.03074187578209798</v>
+        <v>0.02726421574530701</v>
       </c>
       <c r="D62">
-        <v>0.007107470860475212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.01197431146355368</v>
+      </c>
+      <c r="E62">
+        <v>-0.06789242935159048</v>
+      </c>
+      <c r="F62">
+        <v>-0.03687312998177244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04110508551943909</v>
+        <v>-0.04664353474693134</v>
       </c>
       <c r="C63">
-        <v>0.00585578112165993</v>
+        <v>0.003518678419869019</v>
       </c>
       <c r="D63">
-        <v>0.07262875832104423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07572809046018855</v>
+      </c>
+      <c r="E63">
+        <v>-0.01247647561913946</v>
+      </c>
+      <c r="F63">
+        <v>-0.02312491418415212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1145471566035196</v>
+        <v>-0.1117269122726442</v>
       </c>
       <c r="C64">
-        <v>0.02071915135885739</v>
+        <v>0.01654340943757493</v>
       </c>
       <c r="D64">
-        <v>0.05500048945613854</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05935022815099555</v>
+      </c>
+      <c r="E64">
+        <v>-0.03396584990464072</v>
+      </c>
+      <c r="F64">
+        <v>0.0007992780111989171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1512526824416766</v>
+        <v>-0.1567978819376178</v>
       </c>
       <c r="C65">
-        <v>0.04493905644151504</v>
+        <v>0.0429002287244837</v>
       </c>
       <c r="D65">
-        <v>-0.04903837191950237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03797888577098275</v>
+      </c>
+      <c r="E65">
+        <v>-0.06753182744085684</v>
+      </c>
+      <c r="F65">
+        <v>-0.002053101028954831</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1158315657777246</v>
+        <v>-0.1063764956882483</v>
       </c>
       <c r="C66">
-        <v>0.01937745840392366</v>
+        <v>0.01298282380929761</v>
       </c>
       <c r="D66">
-        <v>0.1520147372873631</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1507122730749676</v>
+      </c>
+      <c r="E66">
+        <v>-0.03027671867216658</v>
+      </c>
+      <c r="F66">
+        <v>-0.01674840009586009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05980633709431556</v>
+        <v>-0.05102019260845645</v>
       </c>
       <c r="C67">
-        <v>0.00655408436750518</v>
+        <v>0.003812817324126513</v>
       </c>
       <c r="D67">
-        <v>0.06175138677454475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05846441338166559</v>
+      </c>
+      <c r="E67">
+        <v>0.05032795049856978</v>
+      </c>
+      <c r="F67">
+        <v>-0.07174680866210291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1257615608518962</v>
+        <v>-0.1313998304809048</v>
       </c>
       <c r="C68">
-        <v>0.03840771384318354</v>
+        <v>0.0423966691958791</v>
       </c>
       <c r="D68">
-        <v>-0.2566054760785006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2543033610934033</v>
+      </c>
+      <c r="E68">
+        <v>0.03618754787251274</v>
+      </c>
+      <c r="F68">
+        <v>0.07301339503599823</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03910950586598302</v>
+        <v>-0.03863816185762505</v>
       </c>
       <c r="C69">
-        <v>0.003581567879086511</v>
+        <v>0.002558190641894933</v>
       </c>
       <c r="D69">
-        <v>0.009965991955227941</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01117938204792645</v>
+      </c>
+      <c r="E69">
+        <v>-0.01473939155142117</v>
+      </c>
+      <c r="F69">
+        <v>-0.05121380274653105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07150966450450354</v>
+        <v>-0.07238883107458949</v>
       </c>
       <c r="C70">
-        <v>-0.0214771331164831</v>
+        <v>-0.02334106860263133</v>
       </c>
       <c r="D70">
-        <v>0.05002483207151501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.04591998318295109</v>
+      </c>
+      <c r="E70">
+        <v>0.3347955134950551</v>
+      </c>
+      <c r="F70">
+        <v>-0.1648959317272867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1467385442986591</v>
+        <v>-0.152948067266484</v>
       </c>
       <c r="C71">
-        <v>0.04473091065382803</v>
+        <v>0.04820704324520877</v>
       </c>
       <c r="D71">
-        <v>-0.2675537993703314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2620844951476379</v>
+      </c>
+      <c r="E71">
+        <v>0.0424624600141452</v>
+      </c>
+      <c r="F71">
+        <v>0.08354266726290691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1389582004860929</v>
+        <v>-0.1455438417303025</v>
       </c>
       <c r="C72">
-        <v>0.03471540905608676</v>
+        <v>0.03313933489943265</v>
       </c>
       <c r="D72">
-        <v>0.01218434132523261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01013634160482323</v>
+      </c>
+      <c r="E72">
+        <v>-0.06265641320021179</v>
+      </c>
+      <c r="F72">
+        <v>-0.02807753166244781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1927030762518444</v>
+        <v>-0.1986557229787259</v>
       </c>
       <c r="C73">
-        <v>0.02299735495213482</v>
+        <v>0.01741521495168631</v>
       </c>
       <c r="D73">
-        <v>0.01696073015248929</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02351378625025436</v>
+      </c>
+      <c r="E73">
+        <v>-0.06535596353024201</v>
+      </c>
+      <c r="F73">
+        <v>-0.05217266261029671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08886998489054319</v>
+        <v>-0.08895829189315874</v>
       </c>
       <c r="C74">
-        <v>0.01761899718190486</v>
+        <v>0.01536393471671907</v>
       </c>
       <c r="D74">
-        <v>0.02036039241104357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02511717690052966</v>
+      </c>
+      <c r="E74">
+        <v>-0.07984500382576767</v>
+      </c>
+      <c r="F74">
+        <v>-0.01502008079495505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1278316039576581</v>
+        <v>-0.1203452140340525</v>
       </c>
       <c r="C75">
-        <v>0.03580315129994984</v>
+        <v>0.03198754099333267</v>
       </c>
       <c r="D75">
-        <v>0.03252757379953156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03598007873336148</v>
+      </c>
+      <c r="E75">
+        <v>-0.06295458837302761</v>
+      </c>
+      <c r="F75">
+        <v>-0.06082274663665362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0762066797739611</v>
+        <v>-0.09016806745176828</v>
       </c>
       <c r="C77">
-        <v>0.01479243092841514</v>
+        <v>0.01145551429455696</v>
       </c>
       <c r="D77">
-        <v>0.1231828033312196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1219469302193497</v>
+      </c>
+      <c r="E77">
+        <v>-0.05065717425542106</v>
+      </c>
+      <c r="F77">
+        <v>0.01968229037198094</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09777737320373549</v>
+        <v>-0.0996028424838498</v>
       </c>
       <c r="C78">
-        <v>0.04423100173411317</v>
+        <v>0.04089885173049507</v>
       </c>
       <c r="D78">
-        <v>0.152690649462255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1431706107309267</v>
+      </c>
+      <c r="E78">
+        <v>-0.05433803843141972</v>
+      </c>
+      <c r="F78">
+        <v>0.03657311882741245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1683175826694075</v>
+        <v>-0.1639060994035057</v>
       </c>
       <c r="C79">
-        <v>0.03412983631843983</v>
+        <v>0.03011452451571766</v>
       </c>
       <c r="D79">
-        <v>0.02171358929396388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02528503097748054</v>
+      </c>
+      <c r="E79">
+        <v>-0.03797609198082535</v>
+      </c>
+      <c r="F79">
+        <v>-0.03599463992928355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0795090399099756</v>
+        <v>-0.07672624196517765</v>
       </c>
       <c r="C80">
-        <v>0.004989636817854474</v>
+        <v>0.00202931775596599</v>
       </c>
       <c r="D80">
-        <v>0.05498800942476438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05373939954555775</v>
+      </c>
+      <c r="E80">
+        <v>0.01927055687292812</v>
+      </c>
+      <c r="F80">
+        <v>-0.05165468939349546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1146320653083259</v>
+        <v>-0.1089123750241902</v>
       </c>
       <c r="C81">
-        <v>0.03689971375007792</v>
+        <v>0.03478764615472228</v>
       </c>
       <c r="D81">
-        <v>0.003694338745448362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.009057510136163967</v>
+      </c>
+      <c r="E81">
+        <v>-0.04923173648986887</v>
+      </c>
+      <c r="F81">
+        <v>-0.06086999590301075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1608939273841095</v>
+        <v>-0.1591853222045365</v>
       </c>
       <c r="C82">
-        <v>0.03383345724374622</v>
+        <v>0.03045568571072122</v>
       </c>
       <c r="D82">
-        <v>-0.004846247539301554</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.000856975866623721</v>
+      </c>
+      <c r="E82">
+        <v>-0.101376348887304</v>
+      </c>
+      <c r="F82">
+        <v>2.830103580092306e-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05641043284290248</v>
+        <v>-0.05186685928003921</v>
       </c>
       <c r="C83">
-        <v>0.006598684655701487</v>
+        <v>0.004167478605052109</v>
       </c>
       <c r="D83">
-        <v>0.05019952544219593</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04824088167905986</v>
+      </c>
+      <c r="E83">
+        <v>0.02307621486901748</v>
+      </c>
+      <c r="F83">
+        <v>-0.009233788346275361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05444595609717647</v>
+        <v>-0.05086794432342411</v>
       </c>
       <c r="C84">
-        <v>0.01387684148454361</v>
+        <v>0.01113038900823082</v>
       </c>
       <c r="D84">
-        <v>0.07796903189494103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07520797985257693</v>
+      </c>
+      <c r="E84">
+        <v>-0.007508263731545148</v>
+      </c>
+      <c r="F84">
+        <v>-0.005058128866830298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1391025712672463</v>
+        <v>-0.1338424460753602</v>
       </c>
       <c r="C85">
-        <v>0.03716942762630519</v>
+        <v>0.03397529061852106</v>
       </c>
       <c r="D85">
-        <v>0.01371767366585244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01753755844150266</v>
+      </c>
+      <c r="E85">
+        <v>-0.08153084106870889</v>
+      </c>
+      <c r="F85">
+        <v>-0.01541275651035175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08618929129032502</v>
+        <v>-0.08215379488271156</v>
       </c>
       <c r="C86">
-        <v>-0.002014171064734321</v>
+        <v>-0.006450141468984798</v>
       </c>
       <c r="D86">
-        <v>0.0714077475401912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07851926530973158</v>
+      </c>
+      <c r="E86">
+        <v>0.5586122314656807</v>
+      </c>
+      <c r="F86">
+        <v>-0.5915553369418455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0887259601999319</v>
+        <v>-0.08900505949130087</v>
       </c>
       <c r="C87">
-        <v>0.02892732072921174</v>
+        <v>0.02413587851701248</v>
       </c>
       <c r="D87">
-        <v>0.08616825485374498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08612369144903237</v>
+      </c>
+      <c r="E87">
+        <v>-0.005062687667294933</v>
+      </c>
+      <c r="F87">
+        <v>0.1075832654419566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06265904727311282</v>
+        <v>-0.06162409075086786</v>
       </c>
       <c r="C88">
-        <v>0.007430020335451889</v>
+        <v>0.004896680257239933</v>
       </c>
       <c r="D88">
-        <v>0.06434643397021085</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.06298782636003401</v>
+      </c>
+      <c r="E88">
+        <v>-0.01452989728706709</v>
+      </c>
+      <c r="F88">
+        <v>-0.01025963350753732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1332158182862395</v>
+        <v>-0.1381513030687935</v>
       </c>
       <c r="C89">
-        <v>0.01796826815224256</v>
+        <v>0.0219901015104201</v>
       </c>
       <c r="D89">
-        <v>-0.2275326638583753</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2330919326760433</v>
+      </c>
+      <c r="E89">
+        <v>0.04276695844937198</v>
+      </c>
+      <c r="F89">
+        <v>0.08055841561361513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1576555792543132</v>
+        <v>-0.1677051519058127</v>
       </c>
       <c r="C90">
-        <v>0.04105020260871001</v>
+        <v>0.04528909047311945</v>
       </c>
       <c r="D90">
-        <v>-0.2558239390337427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2583497517328546</v>
+      </c>
+      <c r="E90">
+        <v>0.0706592779354198</v>
+      </c>
+      <c r="F90">
+        <v>0.1141171503716448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1264193160211074</v>
+        <v>-0.1213783908516309</v>
       </c>
       <c r="C91">
-        <v>0.02806273205683597</v>
+        <v>0.02582679417163848</v>
       </c>
       <c r="D91">
-        <v>-0.01172313179447657</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.00816720290912303</v>
+      </c>
+      <c r="E91">
+        <v>-0.03777750265340467</v>
+      </c>
+      <c r="F91">
+        <v>-0.0916161955895262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1557481735421913</v>
+        <v>-0.1590449795082411</v>
       </c>
       <c r="C92">
-        <v>0.0315444559915342</v>
+        <v>0.03546936371261236</v>
       </c>
       <c r="D92">
-        <v>-0.2853982191910145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2901112509017813</v>
+      </c>
+      <c r="E92">
+        <v>0.05380264458818579</v>
+      </c>
+      <c r="F92">
+        <v>0.07043324702252873</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1624067951334133</v>
+        <v>-0.1708750613483727</v>
       </c>
       <c r="C93">
-        <v>0.03720954380039698</v>
+        <v>0.04019196532458843</v>
       </c>
       <c r="D93">
-        <v>-0.2453800211579949</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2488667027701179</v>
+      </c>
+      <c r="E93">
+        <v>0.02801192622451827</v>
+      </c>
+      <c r="F93">
+        <v>0.05612293346901215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1252710708398156</v>
+        <v>-0.1184862215867728</v>
       </c>
       <c r="C94">
-        <v>0.03092366437824405</v>
+        <v>0.02691997591098686</v>
       </c>
       <c r="D94">
-        <v>0.04629145197596502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04882638106687395</v>
+      </c>
+      <c r="E94">
+        <v>-0.06152405027237109</v>
+      </c>
+      <c r="F94">
+        <v>-0.05928382683134457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1259866904639878</v>
+        <v>-0.1282964759306564</v>
       </c>
       <c r="C95">
-        <v>0.01397027578006182</v>
+        <v>0.008370185480862737</v>
       </c>
       <c r="D95">
-        <v>0.1103973800208586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1183252283405885</v>
+      </c>
+      <c r="E95">
+        <v>-0.0139859997199954</v>
+      </c>
+      <c r="F95">
+        <v>-0.0381050832084782</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1729718810783131</v>
+        <v>-0.1537768914306812</v>
       </c>
       <c r="C96">
-        <v>-0.979258098233682</v>
+        <v>-0.981501836489588</v>
       </c>
       <c r="D96">
-        <v>-0.03140343600124582</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0522292080099624</v>
+      </c>
+      <c r="E96">
+        <v>-0.06405579057209489</v>
+      </c>
+      <c r="F96">
+        <v>-0.01136242186452505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1927665132154081</v>
+        <v>-0.1952876980346988</v>
       </c>
       <c r="C97">
-        <v>0.006724410804673399</v>
+        <v>0.001959056729520421</v>
       </c>
       <c r="D97">
-        <v>-0.01915399731840433</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01511511938349746</v>
+      </c>
+      <c r="E97">
+        <v>0.134938697890342</v>
+      </c>
+      <c r="F97">
+        <v>-0.1070851662677892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1885281932191441</v>
+        <v>-0.196671048338009</v>
       </c>
       <c r="C98">
-        <v>0.01808990953645623</v>
+        <v>0.01282000772785798</v>
       </c>
       <c r="D98">
-        <v>-0.002413779821371401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.002233069453193895</v>
+      </c>
+      <c r="E98">
+        <v>0.1304674665822669</v>
+      </c>
+      <c r="F98">
+        <v>0.06376501023959615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05564940319861481</v>
+        <v>-0.05568036154735918</v>
       </c>
       <c r="C99">
-        <v>-0.0006926378155066163</v>
+        <v>-0.002807282191351319</v>
       </c>
       <c r="D99">
-        <v>0.05426176261757547</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0555722369691506</v>
+      </c>
+      <c r="E99">
+        <v>-0.00537982747996447</v>
+      </c>
+      <c r="F99">
+        <v>-0.006561212225785067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.118323376693262</v>
+        <v>-0.1110208847910456</v>
       </c>
       <c r="C100">
-        <v>-0.0333324233193313</v>
+        <v>-0.04082015835917199</v>
       </c>
       <c r="D100">
-        <v>0.3100779797031321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.2919098859748214</v>
+      </c>
+      <c r="E100">
+        <v>0.5663844918763441</v>
+      </c>
+      <c r="F100">
+        <v>0.6718036577095601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02626146302282313</v>
+        <v>-0.02800957202996096</v>
       </c>
       <c r="C101">
-        <v>0.01010269775193013</v>
+        <v>0.009481443700845452</v>
       </c>
       <c r="D101">
-        <v>0.03906223830295948</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03898543402325556</v>
+      </c>
+      <c r="E101">
+        <v>0.008367496685144809</v>
+      </c>
+      <c r="F101">
+        <v>-0.02409368954593334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
